--- a/Hands-on Projects/Timesheet Migration/Timesheets/Siyakhanya Mjikeliso/Siyakhanya Mjikeliso March Final week.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Siyakhanya Mjikeliso/Siyakhanya Mjikeliso March Final week.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northerndata-my.sharepoint.com/personal/siyakhanya_mjikeliso_sambeconsulting_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Siyakhanya Mjikeliso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{97419BAD-4D37-49EA-9873-9991AAB8F3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8A05CB-D6A5-47A0-9CD9-8ECBC2085375}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A06008-BE55-4754-8CE4-32B501F120F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
@@ -23,6 +23,9 @@
     <sheet name="Leave" sheetId="9" r:id="rId8"/>
     <sheet name="Key" sheetId="2" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="TSheet">Mar!$A$8:$J$119</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1214,7 +1217,7 @@
     <numFmt numFmtId="166" formatCode="_ [$R-1C09]\ * #,##0.00_ ;_ [$R-1C09]\ * \-#,##0.00_ ;_ [$R-1C09]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="[$R-1C09]#,##0.00;\-[$R-1C09]#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2366,146 +2369,6 @@
   </cellStyles>
   <dxfs count="103">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -3177,6 +3040,146 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6758C6CA-2356-4535-9D9D-86230C423211}"/>
@@ -3585,23 +3588,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="H2:H62" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="F2:F39" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F19">
     <sortCondition ref="F2:F19"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3883,18 +3886,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3906,7 @@
       </c>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
       <c r="B7" s="46"/>
       <c r="C7" s="37"/>
@@ -3924,7 +3927,7 @@
       <c r="H7" s="40"/>
       <c r="J7" s="41"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>45566</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>45567</v>
       </c>
@@ -4008,7 +4011,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45568</v>
       </c>
@@ -4027,7 +4030,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45569</v>
       </c>
@@ -4046,7 +4049,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>45570</v>
       </c>
@@ -4065,7 +4068,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>45571</v>
       </c>
@@ -4084,7 +4087,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45572</v>
       </c>
@@ -4103,7 +4106,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45573</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>45574</v>
       </c>
@@ -4141,7 +4144,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45575</v>
       </c>
@@ -4160,7 +4163,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45576</v>
       </c>
@@ -4179,7 +4182,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>45577</v>
       </c>
@@ -4198,7 +4201,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>45578</v>
       </c>
@@ -4217,7 +4220,7 @@
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45579</v>
       </c>
@@ -4236,7 +4239,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45580</v>
       </c>
@@ -4255,7 +4258,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>45581</v>
       </c>
@@ -4274,7 +4277,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45582</v>
       </c>
@@ -4293,7 +4296,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45583</v>
       </c>
@@ -4312,7 +4315,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>45584</v>
       </c>
@@ -4331,7 +4334,7 @@
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
         <v>45585</v>
       </c>
@@ -4350,7 +4353,7 @@
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45586</v>
       </c>
@@ -4369,7 +4372,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45587</v>
       </c>
@@ -4388,7 +4391,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45588</v>
       </c>
@@ -4407,7 +4410,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45589</v>
       </c>
@@ -4426,7 +4429,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>45590</v>
       </c>
@@ -4445,7 +4448,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>45591</v>
       </c>
@@ -4464,7 +4467,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="31">
         <v>45592</v>
       </c>
@@ -4483,7 +4486,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45593</v>
       </c>
@@ -4502,7 +4505,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45594</v>
       </c>
@@ -4521,7 +4524,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45595</v>
       </c>
@@ -4540,7 +4543,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>45596</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="G40" s="40"/>
@@ -4567,7 +4570,7 @@
       <c r="I40" s="74"/>
       <c r="J40" s="74"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -4581,7 +4584,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -4594,7 +4597,7 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="111" t="s">
         <v>26</v>
       </c>
@@ -4605,7 +4608,7 @@
       <c r="F43" s="2"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
@@ -4619,7 +4622,7 @@
       </c>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="112" t="s">
         <v>28</v>
       </c>
@@ -4635,7 +4638,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4649,7 +4652,7 @@
       </c>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4658,7 +4661,7 @@
       <c r="F47" s="2"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4669,7 +4672,7 @@
       <c r="F48" s="21"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="39"/>
       <c r="H49" s="40"/>
     </row>
@@ -4680,56 +4683,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D7:E7">
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="95" priority="12" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="13" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="94" priority="13" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="14" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="93" priority="14" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="15" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="92" priority="15" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="16" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="91" priority="16" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="17" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B49">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="87" priority="2" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41 D43:E45 E48">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="85" priority="4" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="83" priority="6" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="81" priority="8" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4782,18 +4785,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -4803,7 +4806,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -4817,10 +4820,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>45597</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45598</v>
       </c>
@@ -4904,7 +4907,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>45599</v>
       </c>
@@ -4923,7 +4926,7 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45600</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45601</v>
       </c>
@@ -4961,7 +4964,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45602</v>
       </c>
@@ -4980,7 +4983,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45603</v>
       </c>
@@ -4999,7 +5002,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45604</v>
       </c>
@@ -5018,7 +5021,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>45605</v>
       </c>
@@ -5037,7 +5040,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>45606</v>
       </c>
@@ -5056,7 +5059,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45607</v>
       </c>
@@ -5075,7 +5078,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45608</v>
       </c>
@@ -5094,7 +5097,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45609</v>
       </c>
@@ -5113,7 +5116,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45610</v>
       </c>
@@ -5132,7 +5135,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45611</v>
       </c>
@@ -5151,7 +5154,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>45612</v>
       </c>
@@ -5170,7 +5173,7 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>45613</v>
       </c>
@@ -5189,7 +5192,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45614</v>
       </c>
@@ -5208,7 +5211,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45615</v>
       </c>
@@ -5227,7 +5230,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45616</v>
       </c>
@@ -5246,7 +5249,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45617</v>
       </c>
@@ -5265,7 +5268,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45618</v>
       </c>
@@ -5284,7 +5287,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="31">
         <v>45619</v>
       </c>
@@ -5303,7 +5306,7 @@
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>45620</v>
       </c>
@@ -5322,7 +5325,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>45621</v>
       </c>
@@ -5341,7 +5344,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>45622</v>
       </c>
@@ -5360,7 +5363,7 @@
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45623</v>
       </c>
@@ -5379,7 +5382,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45624</v>
       </c>
@@ -5398,7 +5401,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45625</v>
       </c>
@@ -5417,7 +5420,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="31">
         <v>45626</v>
       </c>
@@ -5436,7 +5439,7 @@
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
@@ -5447,7 +5450,7 @@
       <c r="H39" s="36"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -5461,7 +5464,7 @@
       </c>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="9"/>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="111" t="s">
         <v>26</v>
       </c>
@@ -5485,7 +5488,7 @@
       <c r="F42" s="2"/>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9">
+    <row r="43" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="6"/>
@@ -5499,7 +5502,7 @@
       </c>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="112" t="s">
         <v>28</v>
       </c>
@@ -5515,7 +5518,7 @@
       </c>
       <c r="H44" s="40"/>
     </row>
-    <row r="45" spans="1:10" ht="14.45" thickBot="1">
+    <row r="45" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5529,7 +5532,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="13.9" thickBot="1">
+    <row r="46" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5538,7 +5541,7 @@
       <c r="F46" s="2"/>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5549,7 +5552,7 @@
       <c r="F47" s="21"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.15" thickBot="1">
+    <row r="48" spans="1:10" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E48" s="39"/>
       <c r="H48" s="40"/>
     </row>
@@ -5560,56 +5563,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="79" priority="21" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="22" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="78" priority="22" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="23" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="77" priority="23" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="24" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="25" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="26" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="27" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B48">
-    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:E40 D42:E44 E47">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5666,18 +5669,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -5687,7 +5690,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -5701,10 +5704,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45627</v>
       </c>
@@ -5755,7 +5758,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>45628</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45629</v>
       </c>
@@ -5807,7 +5810,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45630</v>
       </c>
@@ -5826,7 +5829,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45631</v>
       </c>
@@ -5845,7 +5848,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45632</v>
       </c>
@@ -5864,7 +5867,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>45633</v>
       </c>
@@ -5883,7 +5886,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>45634</v>
       </c>
@@ -5902,7 +5905,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>45635</v>
       </c>
@@ -5921,7 +5924,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45636</v>
       </c>
@@ -5940,7 +5943,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45637</v>
       </c>
@@ -5959,7 +5962,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45638</v>
       </c>
@@ -5978,7 +5981,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45639</v>
       </c>
@@ -5997,7 +6000,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>45640</v>
       </c>
@@ -6016,7 +6019,7 @@
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>45641</v>
       </c>
@@ -6035,7 +6038,7 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="47">
         <v>45642</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45643</v>
       </c>
@@ -6085,7 +6088,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45644</v>
       </c>
@@ -6104,7 +6107,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45645</v>
       </c>
@@ -6123,7 +6126,7 @@
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45646</v>
       </c>
@@ -6142,7 +6145,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
         <v>45647</v>
       </c>
@@ -6161,7 +6164,7 @@
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
         <v>45648</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45649</v>
       </c>
@@ -6199,7 +6202,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45650</v>
       </c>
@@ -6218,7 +6221,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="47">
         <v>45651</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
         <v>45652</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45653</v>
       </c>
@@ -6299,7 +6302,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="31">
         <v>45654</v>
       </c>
@@ -6318,7 +6321,7 @@
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="31">
         <v>45655</v>
       </c>
@@ -6337,7 +6340,7 @@
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45656</v>
       </c>
@@ -6356,7 +6359,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="39" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>45657</v>
       </c>
@@ -6375,7 +6378,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -6386,7 +6389,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -6400,7 +6403,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -6413,7 +6416,7 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="111" t="s">
         <v>26</v>
       </c>
@@ -6424,7 +6427,7 @@
       <c r="F43" s="2"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
@@ -6438,7 +6441,7 @@
       </c>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="112" t="s">
         <v>28</v>
       </c>
@@ -6454,7 +6457,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -6468,7 +6471,7 @@
       </c>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -6477,7 +6480,7 @@
       <c r="F47" s="2"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -6488,7 +6491,7 @@
       <c r="F48" s="21"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="39"/>
       <c r="H49" s="40"/>
     </row>
@@ -6499,56 +6502,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="61" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="59" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B49">
-    <cfRule type="containsText" dxfId="63" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E41 D43:E45 E48">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="49" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6605,18 +6608,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -6640,10 +6643,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <v>45658</v>
       </c>
@@ -6708,7 +6711,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>45659</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45660</v>
       </c>
@@ -6760,7 +6763,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>45661</v>
       </c>
@@ -6779,7 +6782,7 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>45662</v>
       </c>
@@ -6798,7 +6801,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45663</v>
       </c>
@@ -6817,7 +6820,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45664</v>
       </c>
@@ -6836,7 +6839,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45665</v>
       </c>
@@ -6855,7 +6858,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>45666</v>
       </c>
@@ -6874,7 +6877,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45667</v>
       </c>
@@ -6893,7 +6896,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>45668</v>
       </c>
@@ -6912,7 +6915,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>45669</v>
       </c>
@@ -6931,7 +6934,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45670</v>
       </c>
@@ -6950,7 +6953,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45671</v>
       </c>
@@ -6969,7 +6972,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45672</v>
       </c>
@@ -6988,7 +6991,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>45673</v>
       </c>
@@ -7007,7 +7010,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45674</v>
       </c>
@@ -7026,7 +7029,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>45675</v>
       </c>
@@ -7045,7 +7048,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>45676</v>
       </c>
@@ -7064,7 +7067,7 @@
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45677</v>
       </c>
@@ -7083,7 +7086,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45678</v>
       </c>
@@ -7102,7 +7105,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45679</v>
       </c>
@@ -7121,7 +7124,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45680</v>
       </c>
@@ -7140,7 +7143,7 @@
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45681</v>
       </c>
@@ -7159,7 +7162,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>45682</v>
       </c>
@@ -7178,7 +7181,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>45683</v>
       </c>
@@ -7197,7 +7200,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45684</v>
       </c>
@@ -7216,7 +7219,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45685</v>
       </c>
@@ -7235,7 +7238,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45686</v>
       </c>
@@ -7254,7 +7257,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45687</v>
       </c>
@@ -7273,7 +7276,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="13.15" thickBot="1">
+    <row r="39" spans="1:10" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>45688</v>
       </c>
@@ -7292,7 +7295,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7303,7 +7306,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -7317,7 +7320,7 @@
       </c>
       <c r="H41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="9"/>
@@ -7330,7 +7333,7 @@
       </c>
       <c r="H42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="111" t="s">
         <v>26</v>
       </c>
@@ -7341,7 +7344,7 @@
       <c r="F43" s="2"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
@@ -7355,7 +7358,7 @@
       </c>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="112" t="s">
         <v>28</v>
       </c>
@@ -7371,7 +7374,7 @@
       </c>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7385,7 +7388,7 @@
       </c>
       <c r="H46" s="40"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -7394,7 +7397,7 @@
       <c r="F47" s="2"/>
       <c r="H47" s="40"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7405,7 +7408,7 @@
       <c r="F48" s="21"/>
       <c r="H48" s="40"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="39"/>
       <c r="H49" s="40"/>
     </row>
@@ -7416,56 +7419,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="54" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B49">
-    <cfRule type="containsText" dxfId="47" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:E41 D43:E45 E48">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="35" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7538,18 +7541,18 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -7559,7 +7562,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -7573,10 +7576,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45689</v>
       </c>
@@ -7627,7 +7630,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45690</v>
       </c>
@@ -7646,7 +7649,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="50.45">
+    <row r="11" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45691</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45691</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="50.45">
+    <row r="13" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45692</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="88.15">
+    <row r="14" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45693</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="63">
+    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45694</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="113.45">
+    <row r="16" spans="1:10" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45695</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="50.45">
+    <row r="17" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>47</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75.599999999999994">
+    <row r="18" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45695</v>
       </c>
@@ -7910,7 +7913,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>45696</v>
       </c>
@@ -7929,7 +7932,7 @@
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>45697</v>
       </c>
@@ -7948,7 +7951,7 @@
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:10" ht="25.15">
+    <row r="21" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45698</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45698</v>
       </c>
@@ -8014,7 +8017,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="50.45">
+    <row r="23" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45698</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="37.9">
+    <row r="24" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>45699</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="50.45">
+    <row r="25" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45699</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="63">
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45699</v>
       </c>
@@ -8146,7 +8149,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="50.45">
+    <row r="27" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45699</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="37.9">
+    <row r="28" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45700</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="88.15">
+    <row r="29" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45700</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="50.45">
+    <row r="30" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45700</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>0.76111111111111107</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="50.45">
+    <row r="31" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45701</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="37.9">
+    <row r="32" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45701</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="50.45">
+    <row r="33" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>45701</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="50.45">
+    <row r="34" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>45701</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="37.9">
+    <row r="35" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45701</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>0.73402777777777772</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="25.15">
+    <row r="36" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45702</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="37.9">
+    <row r="37" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45702</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="50.45">
+    <row r="38" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45702</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="37.9">
+    <row r="39" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>45702</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="75.599999999999994">
+    <row r="40" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>45702</v>
       </c>
@@ -8608,7 +8611,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="37.9">
+    <row r="41" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>45702</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>0.73472222222222228</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="31">
         <v>45703</v>
       </c>
@@ -8660,7 +8663,7 @@
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="31">
         <v>45704</v>
       </c>
@@ -8679,7 +8682,7 @@
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" spans="1:10" ht="25.15">
+    <row r="44" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>45705</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="138.6">
+    <row r="45" spans="1:10" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>45705</v>
       </c>
@@ -8745,7 +8748,7 @@
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="50.45">
+    <row r="46" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>45705</v>
       </c>
@@ -8778,7 +8781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="50.45">
+    <row r="47" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>45705</v>
       </c>
@@ -8811,7 +8814,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="37.9">
+    <row r="48" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>45705</v>
       </c>
@@ -8844,7 +8847,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="37.9">
+    <row r="49" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>45705</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="63">
+    <row r="50" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>45705</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>0.72013888888888888</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="37.9">
+    <row r="51" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>45706</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="37.9">
+    <row r="52" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>45706</v>
       </c>
@@ -8976,7 +8979,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="50.45">
+    <row r="53" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>45706</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="50.45">
+    <row r="54" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>45706</v>
       </c>
@@ -9042,7 +9045,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="50.45">
+    <row r="55" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>45706</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="75.599999999999994">
+    <row r="56" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>45706</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>45707</v>
       </c>
@@ -9141,7 +9144,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="50.45">
+    <row r="58" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>45707</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="100.9">
+    <row r="59" spans="1:10" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>45707</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="37.9">
+    <row r="60" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
         <v>45707</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="50.45">
+    <row r="61" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
         <v>45707</v>
       </c>
@@ -9273,7 +9276,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="63">
+    <row r="62" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>45707</v>
       </c>
@@ -9306,7 +9309,7 @@
         <v>0.73958333333333337</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="50.45">
+    <row r="63" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A63" s="22">
         <v>45708</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="50.45">
+    <row r="64" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
         <v>45708</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="37.9">
+    <row r="65" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>45708</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="75.599999999999994">
+    <row r="66" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>45708</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="50.45">
+    <row r="67" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
         <v>45708</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>0.74027777777777781</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="37.9">
+    <row r="68" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
         <v>45709</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="75.599999999999994">
+    <row r="69" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
         <v>45709</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="37.9">
+    <row r="70" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>45709</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="37.9">
+    <row r="71" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>45709</v>
       </c>
@@ -9603,7 +9606,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="31">
         <v>45710</v>
       </c>
@@ -9622,7 +9625,7 @@
       <c r="I72" s="35"/>
       <c r="J72" s="35"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="31">
         <v>45711</v>
       </c>
@@ -9641,7 +9644,7 @@
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
     </row>
-    <row r="74" spans="1:10" ht="63">
+    <row r="74" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A74" s="22">
         <v>45712</v>
       </c>
@@ -9674,7 +9677,7 @@
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="63">
+    <row r="75" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
         <v>45712</v>
       </c>
@@ -9707,7 +9710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="63">
+    <row r="76" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A76" s="22">
         <v>45712</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="50.45">
+    <row r="77" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A77" s="22">
         <v>45712</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="37.9">
+    <row r="78" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A78" s="22">
         <v>45712</v>
       </c>
@@ -9806,7 +9809,7 @@
         <v>0.72013888888888888</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="37.9">
+    <row r="79" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>45713</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="50.45">
+    <row r="80" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>45713</v>
       </c>
@@ -9872,7 +9875,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="63">
+    <row r="81" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>45713</v>
       </c>
@@ -9905,7 +9908,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="37.9">
+    <row r="82" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>45713</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="37.9">
+    <row r="83" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>45713</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>0.72013888888888888</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="37.9">
+    <row r="84" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>45714</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="37.9">
+    <row r="85" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A85" s="22">
         <v>45714</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="50.45">
+    <row r="86" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A86" s="22">
         <v>45714</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="37.9">
+    <row r="87" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A87" s="22">
         <v>45714</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>0.72083333333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="50.45">
+    <row r="88" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A88" s="22">
         <v>45715</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="37.9">
+    <row r="89" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A89" s="22">
         <v>45715</v>
       </c>
@@ -10169,7 +10172,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="37.9">
+    <row r="90" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A90" s="22">
         <v>45715</v>
       </c>
@@ -10202,7 +10205,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="50.45">
+    <row r="91" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A91" s="22">
         <v>45715</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>0.72847222222222219</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="50.45">
+    <row r="92" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A92" s="22">
         <v>45716</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="50.45">
+    <row r="93" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A93" s="22">
         <v>45716</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="37.9">
+    <row r="94" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>45716</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="50.45">
+    <row r="95" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>45716</v>
       </c>
@@ -10367,7 +10370,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="63">
+    <row r="96" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>45716</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="13.9" customHeight="1" thickBot="1">
+    <row r="97" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="46"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
@@ -10411,7 +10414,7 @@
       <c r="H97" s="36"/>
       <c r="I97" s="37"/>
     </row>
-    <row r="98" spans="1:9" ht="13.9" customHeight="1">
+    <row r="98" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -10425,7 +10428,7 @@
       </c>
       <c r="H98" s="40"/>
     </row>
-    <row r="99" spans="1:9" ht="13.9" customHeight="1" thickBot="1">
+    <row r="99" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="9"/>
@@ -10438,7 +10441,7 @@
       </c>
       <c r="H99" s="40"/>
     </row>
-    <row r="100" spans="1:9" ht="13.9" customHeight="1" thickBot="1">
+    <row r="100" spans="1:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="111" t="s">
         <v>26</v>
       </c>
@@ -10449,7 +10452,7 @@
       <c r="F100" s="2"/>
       <c r="H100" s="40"/>
     </row>
-    <row r="101" spans="1:9" ht="13.9">
+    <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="6"/>
@@ -10463,7 +10466,7 @@
       </c>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="112" t="s">
         <v>28</v>
       </c>
@@ -10479,7 +10482,7 @@
       </c>
       <c r="H102" s="40"/>
     </row>
-    <row r="103" spans="1:9" ht="14.45" thickBot="1">
+    <row r="103" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10493,7 +10496,7 @@
       </c>
       <c r="H103" s="40"/>
     </row>
-    <row r="104" spans="1:9" ht="13.9" thickBot="1">
+    <row r="104" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10502,7 +10505,7 @@
       <c r="F104" s="2"/>
       <c r="H104" s="40"/>
     </row>
-    <row r="105" spans="1:9" ht="13.9" thickBot="1">
+    <row r="105" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10513,7 +10516,7 @@
       <c r="F105" s="21"/>
       <c r="H105" s="40"/>
     </row>
-    <row r="106" spans="1:9" ht="13.15" thickBot="1">
+    <row r="106" spans="1:9" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E106" s="39"/>
       <c r="H106" s="40"/>
     </row>
@@ -10524,56 +10527,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B106">
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97:E98 D100:E102 E105">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D97)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10626,22 +10629,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1366D5-46F5-410C-BC9F-D56DCF566D28}">
   <dimension ref="A5:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" customWidth="1"/>
     <col min="4" max="5" width="20" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="23" customWidth="1"/>
     <col min="7" max="7" width="34" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="23"/>
+    <col min="8" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -10651,7 +10654,7 @@
       <c r="C5" s="37"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -10665,10 +10668,10 @@
       <c r="H6" s="40"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>45717</v>
       </c>
@@ -10719,7 +10722,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>45718</v>
       </c>
@@ -10738,7 +10741,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="50.45">
+    <row r="11" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>45719</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.15">
+    <row r="12" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>45719</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="37.9">
+    <row r="13" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>45719</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="50.45">
+    <row r="14" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>45719</v>
       </c>
@@ -10870,7 +10873,7 @@
         <v>0.7319444444444444</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="50.45">
+    <row r="15" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>45720</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="50.45">
+    <row r="16" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>45720</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="50.45">
+    <row r="17" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>45720</v>
       </c>
@@ -10969,7 +10972,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.15">
+    <row r="18" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>45720</v>
       </c>
@@ -11002,7 +11005,7 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25.15">
+    <row r="19" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>45720</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="37.9">
+    <row r="20" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <v>45720</v>
       </c>
@@ -11068,7 +11071,7 @@
         <v>0.72430555555555554</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="37.9">
+    <row r="21" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>45721</v>
       </c>
@@ -11101,7 +11104,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="50.45">
+    <row r="22" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>45721</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="50.45">
+    <row r="23" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45721</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="37.9">
+    <row r="24" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>45721</v>
       </c>
@@ -11200,7 +11203,7 @@
         <v>0.72013888888888888</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="37.9">
+    <row r="25" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>45722</v>
       </c>
@@ -11233,7 +11236,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="75.599999999999994">
+    <row r="26" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>45722</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="37.9">
+    <row r="27" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>45722</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="88.15">
+    <row r="28" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>45722</v>
       </c>
@@ -11332,7 +11335,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="37.9">
+    <row r="29" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>45723</v>
       </c>
@@ -11365,7 +11368,7 @@
         <v>0.40972222222222221</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="50.45">
+    <row r="30" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>45723</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="37.9">
+    <row r="31" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>45723</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="37.9">
+    <row r="32" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>45723</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>0.72569444444444442</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>45724</v>
       </c>
@@ -11483,7 +11486,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>45725</v>
       </c>
@@ -11502,7 +11505,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="63">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>45726</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="37.9">
+    <row r="36" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>45726</v>
       </c>
@@ -11568,7 +11571,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="25.15">
+    <row r="37" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>45726</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="25.15">
+    <row r="38" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>45726</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="37.9">
+    <row r="39" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>45726</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="37.9">
+    <row r="40" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>45726</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="50.45">
+    <row r="41" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>45726</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="37.9">
+    <row r="42" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>45727</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="25.15">
+    <row r="43" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>45727</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="37.9">
+    <row r="44" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>45727</v>
       </c>
@@ -11832,7 +11835,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="50.45">
+    <row r="45" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>45727</v>
       </c>
@@ -11865,7 +11868,7 @@
         <v>0.73402777777777772</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="25.15">
+    <row r="46" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>45728</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="37.9">
+    <row r="47" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>45728</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="37.9">
+    <row r="48" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>45728</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="37.9">
+    <row r="49" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>45728</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="37.9">
+    <row r="50" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>45728</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="50.45">
+    <row r="51" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>45729</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="37.9">
+    <row r="52" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>45729</v>
       </c>
@@ -12096,7 +12099,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="63">
+    <row r="53" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>45729</v>
       </c>
@@ -12129,7 +12132,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="25.15">
+    <row r="54" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>45729</v>
       </c>
@@ -12162,7 +12165,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="25.15">
+    <row r="55" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>45729</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="50.45">
+    <row r="56" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>45729</v>
       </c>
@@ -12228,7 +12231,7 @@
         <v>0.73958333333333337</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="25.15">
+    <row r="57" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>45730</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="37.9">
+    <row r="58" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>45730</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="37.9">
+    <row r="59" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>45730</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>0.50902777777777775</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="63">
+    <row r="60" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
         <v>45730</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="37.9">
+    <row r="61" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
         <v>45730</v>
       </c>
@@ -12393,7 +12396,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="31">
         <v>45731</v>
       </c>
@@ -12412,7 +12415,7 @@
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="31">
         <v>45732</v>
       </c>
@@ -12431,7 +12434,7 @@
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
     </row>
-    <row r="64" spans="1:10" ht="50.45">
+    <row r="64" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
         <v>45733</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="37.9">
+    <row r="65" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>45733</v>
       </c>
@@ -12497,7 +12500,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="37.9">
+    <row r="66" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>45733</v>
       </c>
@@ -12530,7 +12533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="37.9">
+    <row r="67" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
         <v>45733</v>
       </c>
@@ -12563,7 +12566,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="37.9">
+    <row r="68" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
         <v>45733</v>
       </c>
@@ -12596,7 +12599,7 @@
         <v>0.73263888888888884</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="63">
+    <row r="69" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
         <v>45734</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="37.9">
+    <row r="70" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>45734</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="75.599999999999994">
+    <row r="71" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>45734</v>
       </c>
@@ -12695,7 +12698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="37.9">
+    <row r="72" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A72" s="22">
         <v>45734</v>
       </c>
@@ -12728,7 +12731,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="37.9">
+    <row r="73" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A73" s="22">
         <v>45734</v>
       </c>
@@ -12761,7 +12764,7 @@
         <v>0.74930555555555556</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="37.9">
+    <row r="74" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A74" s="22">
         <v>45735</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="37.9">
+    <row r="75" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
         <v>45735</v>
       </c>
@@ -12827,7 +12830,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="50.45">
+    <row r="76" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A76" s="22">
         <v>45735</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="37.9">
+    <row r="77" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A77" s="22">
         <v>45735</v>
       </c>
@@ -12893,7 +12896,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="50.45">
+    <row r="78" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A78" s="22">
         <v>45735</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>0.77013888888888893</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="75.599999999999994">
+    <row r="79" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>45736</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="37.9">
+    <row r="80" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>45736</v>
       </c>
@@ -12992,7 +12995,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="37.9">
+    <row r="81" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>45736</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="37.9">
+    <row r="82" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>45736</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="25.15">
+    <row r="83" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>45736</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="75.599999999999994">
+    <row r="84" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>45736</v>
       </c>
@@ -13124,7 +13127,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="47">
         <v>45737</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="31">
         <v>45738</v>
       </c>
@@ -13174,7 +13177,7 @@
       <c r="I86" s="35"/>
       <c r="J86" s="35"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="31">
         <v>45739</v>
       </c>
@@ -13193,7 +13196,7 @@
       <c r="I87" s="35"/>
       <c r="J87" s="35"/>
     </row>
-    <row r="88" spans="1:10" ht="63">
+    <row r="88" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A88" s="22">
         <v>45740</v>
       </c>
@@ -13226,7 +13229,7 @@
         <v>0.34652777777777777</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="37.9">
+    <row r="89" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A89" s="22">
         <v>45740</v>
       </c>
@@ -13259,7 +13262,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="50.45">
+    <row r="90" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A90" s="22">
         <v>45740</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="50.45">
+    <row r="91" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A91" s="22">
         <v>45740</v>
       </c>
@@ -13325,7 +13328,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="50.45">
+    <row r="92" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A92" s="22">
         <v>45740</v>
       </c>
@@ -13358,7 +13361,7 @@
         <v>0.73263888888888884</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="50.45">
+    <row r="93" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A93" s="22">
         <v>45741</v>
       </c>
@@ -13391,7 +13394,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="37.9">
+    <row r="94" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>45741</v>
       </c>
@@ -13424,7 +13427,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="88.15">
+    <row r="95" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>45741</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="37.9">
+    <row r="96" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>45741</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="50.45">
+    <row r="97" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>45741</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="37.9">
+    <row r="98" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A98" s="22">
         <v>45742</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>0.34791666666666665</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="37.9">
+    <row r="99" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A99" s="22">
         <v>45742</v>
       </c>
@@ -13589,7 +13592,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="50.45">
+    <row r="100" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A100" s="22">
         <v>45742</v>
       </c>
@@ -13622,7 +13625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="37.9">
+    <row r="101" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A101" s="22">
         <v>45742</v>
       </c>
@@ -13655,7 +13658,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="75.599999999999994">
+    <row r="102" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A102" s="22">
         <v>45742</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>0.72777777777777775</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="37.9">
+    <row r="103" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A103" s="22">
         <v>45743</v>
       </c>
@@ -13721,7 +13724,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="50.45">
+    <row r="104" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A104" s="22">
         <v>45743</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="50.45">
+    <row r="105" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A105" s="22">
         <v>45743</v>
       </c>
@@ -13787,7 +13790,7 @@
         <v>0.51597222222222228</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="50.45">
+    <row r="106" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A106" s="22">
         <v>45743</v>
       </c>
@@ -13820,7 +13823,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="50.45">
+    <row r="107" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A107" s="22">
         <v>45743</v>
       </c>
@@ -13853,7 +13856,7 @@
         <v>0.72777777777777775</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="50.45">
+    <row r="108" spans="1:10" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A108" s="22">
         <v>45744</v>
       </c>
@@ -13886,7 +13889,7 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="25.15">
+    <row r="109" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A109" s="22">
         <v>45744</v>
       </c>
@@ -13919,7 +13922,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="37.9">
+    <row r="110" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
         <v>45744</v>
       </c>
@@ -13952,7 +13955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="37.9">
+    <row r="111" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>45744</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="37.9">
+    <row r="112" spans="1:10" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
         <v>45744</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="31">
         <v>45745</v>
       </c>
@@ -14037,7 +14040,7 @@
       <c r="I113" s="35"/>
       <c r="J113" s="35"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="31">
         <v>45746</v>
       </c>
@@ -14056,7 +14059,7 @@
       <c r="I114" s="35"/>
       <c r="J114" s="35"/>
     </row>
-    <row r="115" spans="1:10" ht="51.6" customHeight="1">
+    <row r="115" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="22">
         <v>45747</v>
       </c>
@@ -14089,8 +14092,10 @@
         <v>0.34722222222222221</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="44.45" customHeight="1">
-      <c r="A116" s="46"/>
+    <row r="116" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="22">
+        <v>45747</v>
+      </c>
       <c r="B116" s="22" t="s">
         <v>23</v>
       </c>
@@ -14120,8 +14125,10 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="56.45" customHeight="1">
-      <c r="A117" s="46"/>
+    <row r="117" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="22">
+        <v>45747</v>
+      </c>
       <c r="B117" s="22" t="s">
         <v>23</v>
       </c>
@@ -14151,8 +14158,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="40.15" customHeight="1">
-      <c r="A118" s="46"/>
+    <row r="118" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="22">
+        <v>45747</v>
+      </c>
       <c r="B118" s="22" t="s">
         <v>23</v>
       </c>
@@ -14182,8 +14191,10 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="47.45" customHeight="1">
-      <c r="A119" s="46"/>
+    <row r="119" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="22">
+        <v>45747</v>
+      </c>
       <c r="B119" s="22" t="s">
         <v>23</v>
       </c>
@@ -14213,7 +14224,7 @@
         <v>0.7319444444444444</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="120" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="46"/>
       <c r="B120" s="46"/>
       <c r="C120" s="45"/>
@@ -14224,7 +14235,7 @@
       <c r="H120" s="36"/>
       <c r="I120" s="37"/>
     </row>
-    <row r="121" spans="1:10" ht="13.9" customHeight="1">
+    <row r="121" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -14238,7 +14249,7 @@
       </c>
       <c r="H121" s="40"/>
     </row>
-    <row r="122" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="122" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="9"/>
@@ -14251,7 +14262,7 @@
       </c>
       <c r="H122" s="40"/>
     </row>
-    <row r="123" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="123" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="111" t="s">
         <v>26</v>
       </c>
@@ -14262,7 +14273,7 @@
       <c r="F123" s="2"/>
       <c r="H123" s="40"/>
     </row>
-    <row r="124" spans="1:10" ht="13.9">
+    <row r="124" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="6"/>
@@ -14276,7 +14287,7 @@
       </c>
       <c r="H124" s="38"/>
     </row>
-    <row r="125" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="125" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="112" t="s">
         <v>28</v>
       </c>
@@ -14292,7 +14303,7 @@
       </c>
       <c r="H125" s="40"/>
     </row>
-    <row r="126" spans="1:10" ht="14.45" thickBot="1">
+    <row r="126" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -14306,7 +14317,7 @@
       </c>
       <c r="H126" s="40"/>
     </row>
-    <row r="127" spans="1:10" ht="13.9" thickBot="1">
+    <row r="127" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -14315,7 +14326,7 @@
       <c r="F127" s="2"/>
       <c r="H127" s="40"/>
     </row>
-    <row r="128" spans="1:10" ht="13.9" thickBot="1">
+    <row r="128" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -14326,7 +14337,7 @@
       <c r="F128" s="21"/>
       <c r="H128" s="40"/>
     </row>
-    <row r="129" spans="5:8" ht="13.15" thickBot="1">
+    <row r="129" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E129" s="39"/>
       <c r="H129" s="40"/>
     </row>
@@ -14337,56 +14348,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7 D120:E121">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B129">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:E125 E128">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D123)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14443,18 +14454,18 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="23" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="23"/>
-    <col min="5" max="5" width="13.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="23"/>
+    <col min="5" max="5" width="13.19921875" style="23" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="23"/>
+    <col min="7" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="94"/>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -14462,7 +14473,7 @@
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="98"/>
@@ -14470,7 +14481,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="98"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="99"/>
@@ -14478,7 +14489,7 @@
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="93"/>
       <c r="C4" s="100"/>
@@ -14486,7 +14497,7 @@
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -14498,7 +14509,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="100"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>223</v>
       </c>
@@ -14511,7 +14522,7 @@
       <c r="E6" s="99"/>
       <c r="F6" s="99"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87"/>
       <c r="B7" s="88"/>
       <c r="C7" s="88"/>
@@ -14519,7 +14530,7 @@
       <c r="E7" s="99"/>
       <c r="F7" s="99"/>
     </row>
-    <row r="8" spans="1:15" ht="27.4" customHeight="1">
+    <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="118" t="s">
         <v>224</v>
       </c>
@@ -14529,7 +14540,7 @@
       <c r="E8" s="118"/>
       <c r="F8" s="118"/>
     </row>
-    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>225</v>
       </c>
@@ -14545,7 +14556,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="92">
         <v>45566</v>
       </c>
@@ -14572,7 +14583,7 @@
       <c r="N10" s="114"/>
       <c r="O10" s="114"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="92">
         <v>45566</v>
       </c>
@@ -14586,7 +14597,7 @@
       <c r="E11" s="117"/>
       <c r="F11" s="91"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="92">
         <v>45566</v>
       </c>
@@ -14598,7 +14609,7 @@
       <c r="E12" s="117"/>
       <c r="F12" s="91"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="92">
         <v>45566</v>
       </c>
@@ -14608,7 +14619,7 @@
       <c r="E13" s="117"/>
       <c r="F13" s="91"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="92">
         <v>45566</v>
       </c>
@@ -14618,7 +14629,7 @@
       <c r="E14" s="117"/>
       <c r="F14" s="91"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="92">
         <v>45566</v>
       </c>
@@ -14628,7 +14639,7 @@
       <c r="E15" s="117"/>
       <c r="F15" s="91"/>
     </row>
-    <row r="16" spans="1:15" ht="13.15" thickBot="1">
+    <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92">
         <v>45566</v>
       </c>
@@ -14638,7 +14649,7 @@
       <c r="E16" s="117"/>
       <c r="F16" s="91"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="121" t="s">
         <v>235</v>
       </c>
@@ -14651,7 +14662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="87"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -14714,19 +14725,19 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="23"/>
+    <col min="2" max="2" width="11.69921875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="126"/>
       <c r="B4" s="126"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
@@ -14734,23 +14745,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>236</v>
       </c>
       <c r="B6" s="93"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="109" t="s">
         <v>237</v>
       </c>
       <c r="B7" s="109"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="110"/>
       <c r="B8" s="99"/>
     </row>
-    <row r="9" spans="1:6" ht="27.4" customHeight="1">
+    <row r="9" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="139" t="s">
         <v>238</v>
       </c>
@@ -14760,7 +14771,7 @@
       <c r="E9" s="139"/>
       <c r="F9" s="139"/>
     </row>
-    <row r="10" spans="1:6" ht="25.15">
+    <row r="10" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
         <v>239</v>
       </c>
@@ -14780,7 +14791,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="101"/>
       <c r="B11" s="101"/>
       <c r="C11" s="101"/>
@@ -14788,7 +14799,7 @@
       <c r="E11" s="101"/>
       <c r="F11" s="101"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="101"/>
       <c r="B12" s="101"/>
       <c r="C12" s="101"/>
@@ -14796,7 +14807,7 @@
       <c r="E12" s="101"/>
       <c r="F12" s="101"/>
     </row>
-    <row r="13" spans="1:6" ht="13.15" thickBot="1">
+    <row r="13" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101"/>
       <c r="B13" s="101"/>
       <c r="C13" s="101"/>
@@ -14804,7 +14815,7 @@
       <c r="E13" s="101"/>
       <c r="F13" s="101"/>
     </row>
-    <row r="14" spans="1:6" ht="13.15" thickBot="1">
+    <row r="14" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="103"/>
@@ -14815,7 +14826,7 @@
       <c r="E14" s="103"/>
       <c r="F14" s="105"/>
     </row>
-    <row r="15" spans="1:6" ht="13.15" thickBot="1">
+    <row r="15" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="130"/>
       <c r="B15" s="131"/>
       <c r="C15" s="131"/>
@@ -14823,7 +14834,7 @@
       <c r="E15" s="131"/>
       <c r="F15" s="131"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="140" t="s">
         <v>245</v>
       </c>
@@ -14833,7 +14844,7 @@
       <c r="E16" s="141"/>
       <c r="F16" s="142"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="127"/>
       <c r="B17" s="128"/>
       <c r="C17" s="128"/>
@@ -14841,7 +14852,7 @@
       <c r="E17" s="128"/>
       <c r="F17" s="129"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="127"/>
       <c r="B18" s="128"/>
       <c r="C18" s="128"/>
@@ -14849,7 +14860,7 @@
       <c r="E18" s="128"/>
       <c r="F18" s="129"/>
     </row>
-    <row r="19" spans="1:6" ht="13.15" thickBot="1">
+    <row r="19" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="130"/>
       <c r="B19" s="131"/>
       <c r="C19" s="131"/>
@@ -14857,8 +14868,8 @@
       <c r="E19" s="131"/>
       <c r="F19" s="132"/>
     </row>
-    <row r="20" spans="1:6" ht="13.15" thickBot="1"/>
-    <row r="21" spans="1:6">
+    <row r="20" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="106" t="s">
         <v>3</v>
       </c>
@@ -14868,7 +14879,7 @@
       <c r="E21" s="133"/>
       <c r="F21" s="134"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="107" t="s">
         <v>246</v>
       </c>
@@ -14878,7 +14889,7 @@
       <c r="E22" s="135"/>
       <c r="F22" s="136"/>
     </row>
-    <row r="23" spans="1:6" ht="13.15" thickBot="1">
+    <row r="23" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
         <v>247</v>
       </c>
@@ -14947,18 +14958,18 @@
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="52"/>
+    <col min="1" max="1" width="8.69921875" style="52"/>
     <col min="2" max="2" width="25.5" style="52" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="52"/>
-    <col min="4" max="4" width="19.25" style="52" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="52"/>
-    <col min="6" max="6" width="21.75" style="52" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="52"/>
+    <col min="3" max="3" width="8.69921875" style="52"/>
+    <col min="4" max="4" width="19.19921875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="52"/>
+    <col min="6" max="6" width="21.69921875" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="75" t="s">
         <v>14</v>
       </c>
@@ -14975,7 +14986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="75" t="s">
         <v>250</v>
       </c>
@@ -14992,7 +15003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="75" t="s">
         <v>253</v>
       </c>
@@ -15009,7 +15020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="75" t="s">
         <v>257</v>
       </c>
@@ -15023,7 +15034,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="75" t="s">
         <v>261</v>
       </c>
@@ -15037,7 +15048,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="75" t="s">
         <v>265</v>
       </c>
@@ -15051,7 +15062,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="75" t="s">
         <v>268</v>
       </c>
@@ -15068,7 +15079,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="75" t="s">
         <v>273</v>
       </c>
@@ -15085,7 +15096,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="75" t="s">
         <v>277</v>
       </c>
@@ -15099,7 +15110,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="75" t="s">
         <v>281</v>
       </c>
@@ -15116,7 +15127,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="75" t="s">
         <v>286</v>
       </c>
@@ -15130,7 +15141,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="75" t="s">
         <v>290</v>
       </c>
@@ -15141,7 +15152,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="75" t="s">
         <v>293</v>
       </c>
@@ -15153,7 +15164,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="75" t="s">
         <v>296</v>
       </c>
@@ -15165,7 +15176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="75" t="s">
         <v>299</v>
       </c>
@@ -15177,7 +15188,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27.6">
+    <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="75" t="s">
         <v>302</v>
       </c>
@@ -15189,7 +15200,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="75" t="s">
         <v>305</v>
       </c>
@@ -15201,7 +15212,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="75" t="s">
         <v>308</v>
       </c>
@@ -15213,7 +15224,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>311</v>
       </c>
@@ -15225,7 +15236,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="75" t="s">
         <v>314</v>
       </c>
@@ -15237,7 +15248,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
         <v>317</v>
       </c>
@@ -15249,7 +15260,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="75" t="s">
         <v>320</v>
       </c>
@@ -15261,7 +15272,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="75" t="s">
         <v>323</v>
       </c>
@@ -15273,7 +15284,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="75" t="s">
         <v>326</v>
       </c>
@@ -15285,7 +15296,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="75" t="s">
         <v>329</v>
       </c>
@@ -15296,7 +15307,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="75" t="s">
         <v>332</v>
       </c>
@@ -15308,7 +15319,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="75" t="s">
         <v>335</v>
       </c>
@@ -15320,7 +15331,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="75" t="s">
         <v>338</v>
       </c>
@@ -15331,7 +15342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="75" t="s">
         <v>341</v>
       </c>
@@ -15342,7 +15353,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="75" t="s">
         <v>344</v>
       </c>
@@ -15353,7 +15364,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="75" t="s">
         <v>347</v>
       </c>
@@ -15364,7 +15375,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="75" t="s">
         <v>350</v>
       </c>
@@ -15375,7 +15386,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="75" t="s">
         <v>353</v>
       </c>
@@ -15386,7 +15397,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="75" t="s">
         <v>356</v>
       </c>
@@ -15397,7 +15408,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="75" t="s">
         <v>359</v>
       </c>
@@ -15408,7 +15419,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="75" t="s">
         <v>362</v>
       </c>
@@ -15419,7 +15430,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="75" t="s">
         <v>365</v>
       </c>
@@ -15430,7 +15441,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="75" t="s">
         <v>367</v>
       </c>
@@ -15441,7 +15452,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
         <v>370</v>
       </c>
@@ -15449,107 +15460,107 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="64"/>
       <c r="D41" s="65"/>
       <c r="H41" s="76" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="62"/>
       <c r="H42" s="83" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H43" s="82" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="63"/>
       <c r="H44" s="83" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H45" s="83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H46" s="83" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="63"/>
       <c r="H47" s="83" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H48" s="82" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="82" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="82" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="67" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="66" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="15" thickBot="1">
+    <row r="55" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H55" s="68" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="8:8" ht="15" thickBot="1">
+    <row r="56" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H56" s="72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="8:8" ht="15" thickBot="1">
+    <row r="57" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H57" s="72"/>
     </row>
-    <row r="58" spans="8:8" ht="15" thickBot="1">
+    <row r="58" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="69"/>
     </row>
-    <row r="59" spans="8:8" ht="15" thickBot="1">
+    <row r="59" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H59" s="69"/>
     </row>
-    <row r="60" spans="8:8" ht="15" thickBot="1">
+    <row r="60" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="70"/>
     </row>
-    <row r="61" spans="8:8" ht="15" thickBot="1">
+    <row r="61" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="71"/>
     </row>
-    <row r="62" spans="8:8" ht="15" thickBot="1">
+    <row r="62" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="69"/>
     </row>
   </sheetData>
@@ -15783,15 +15794,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B93C541-BBD4-4896-9568-1DFFB34816A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B93C541-BBD4-4896-9568-1DFFB34816A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3CEFF6-00A9-4265-A517-3E5C034F467D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3CEFF6-00A9-4265-A517-3E5C034F467D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C1ADA9-89FB-4CFF-9F20-C42D6C87B41A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C1ADA9-89FB-4CFF-9F20-C42D6C87B41A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Hands-on Projects/Timesheet Migration/Timesheets/Siyakhanya Mjikeliso/Siyakhanya Mjikeliso March Final week.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Siyakhanya Mjikeliso/Siyakhanya Mjikeliso March Final week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Siyakhanya Mjikeliso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A06008-BE55-4754-8CE4-32B501F120F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F260EE3-0971-415E-B8C5-83D45B67785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
+    <workbookView xWindow="396" yWindow="864" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="5" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct" sheetId="10" r:id="rId1"/>
@@ -2273,28 +2273,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2310,6 +2295,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14531,27 +14531,27 @@
       <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="115" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="116"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="97" t="s">
         <v>228</v>
       </c>
@@ -14560,103 +14560,103 @@
       <c r="A10" s="92">
         <v>45566</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="91">
         <v>200</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="92">
         <v>45566</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="117" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="117"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="91"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="92">
         <v>45566</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
       <c r="F12" s="91"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="92">
         <v>45566</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="91"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="92">
         <v>45566</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="92">
         <v>45566</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92">
         <v>45566</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="91"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="90">
         <f>SUM(F10:F16)</f>
         <v>200</v>
@@ -14672,6 +14672,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A17:E17"/>
@@ -14681,16 +14691,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D18" xr:uid="{517DF1E8-3052-48CF-9AE1-C19E6ECB6686}">
@@ -15579,12 +15579,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15783,20 +15785,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B93C541-BBD4-4896-9568-1DFFB34816A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C1ADA9-89FB-4CFF-9F20-C42D6C87B41A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15821,12 +15824,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C1ADA9-89FB-4CFF-9F20-C42D6C87B41A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B93C541-BBD4-4896-9568-1DFFB34816A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
-    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
